--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +543,10 @@
         <v>1.132223</v>
       </c>
       <c r="I2">
-        <v>0.6796327704557233</v>
+        <v>0.4877525841056716</v>
       </c>
       <c r="J2">
-        <v>0.7608872132954309</v>
+        <v>0.588184597482006</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07058066666666667</v>
+        <v>0.011782</v>
       </c>
       <c r="N2">
-        <v>0.211742</v>
+        <v>0.035346</v>
       </c>
       <c r="O2">
-        <v>0.09603293044844197</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P2">
-        <v>0.1063685922746608</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q2">
-        <v>0.02663768471844444</v>
+        <v>0.004446617128666667</v>
       </c>
       <c r="R2">
-        <v>0.239739162466</v>
+        <v>0.040019554158</v>
       </c>
       <c r="S2">
-        <v>0.06526712657565641</v>
+        <v>0.009045525816741609</v>
       </c>
       <c r="T2">
-        <v>0.08093450175802459</v>
+        <v>0.01121190241943301</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +605,10 @@
         <v>1.132223</v>
       </c>
       <c r="I3">
-        <v>0.6796327704557233</v>
+        <v>0.4877525841056716</v>
       </c>
       <c r="J3">
-        <v>0.7608872132954309</v>
+        <v>0.588184597482006</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,16 +617,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4501370000000001</v>
+        <v>0.450137</v>
       </c>
       <c r="N3">
         <v>1.350411</v>
       </c>
       <c r="O3">
-        <v>0.612461985056394</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P3">
-        <v>0.678378956759722</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q3">
         <v>0.1698851548503333</v>
@@ -632,10 +635,10 @@
         <v>1.528966393653</v>
       </c>
       <c r="S3">
-        <v>0.4162492357026889</v>
+        <v>0.3455886822755574</v>
       </c>
       <c r="T3">
-        <v>0.5161698739671665</v>
+        <v>0.4283561466114681</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +667,10 @@
         <v>1.132223</v>
       </c>
       <c r="I4">
-        <v>0.6796327704557233</v>
+        <v>0.4877525841056716</v>
       </c>
       <c r="J4">
-        <v>0.7608872132954309</v>
+        <v>0.588184597482006</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,33 +679,33 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2142455</v>
+        <v>0.051649</v>
       </c>
       <c r="N4">
-        <v>0.428491</v>
+        <v>0.103298</v>
       </c>
       <c r="O4">
-        <v>0.291505084495164</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P4">
-        <v>0.2152524509656171</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q4">
-        <v>0.08085789424883333</v>
+        <v>0.01949272857566666</v>
       </c>
       <c r="R4">
-        <v>0.485147365493</v>
+        <v>0.116956371454</v>
       </c>
       <c r="S4">
-        <v>0.1981164081773781</v>
+        <v>0.03965306084780914</v>
       </c>
       <c r="T4">
-        <v>0.1637828375702398</v>
+        <v>0.03276656753586236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,25 +714,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1779035</v>
+        <v>0.3774076666666666</v>
       </c>
       <c r="H5">
-        <v>0.355807</v>
+        <v>1.132223</v>
       </c>
       <c r="I5">
-        <v>0.3203672295442765</v>
+        <v>0.4877525841056716</v>
       </c>
       <c r="J5">
-        <v>0.2391127867045692</v>
+        <v>0.588184597482006</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07058066666666667</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N5">
-        <v>0.211742</v>
+        <v>0.365222</v>
       </c>
       <c r="O5">
-        <v>0.09603293044844197</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P5">
-        <v>0.1063685922746608</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q5">
-        <v>0.01255654763233333</v>
+        <v>0.04594586094511111</v>
       </c>
       <c r="R5">
-        <v>0.07533928579400001</v>
+        <v>0.413512748506</v>
       </c>
       <c r="S5">
-        <v>0.03076580387278555</v>
+        <v>0.09346531516556338</v>
       </c>
       <c r="T5">
-        <v>0.02543409051663626</v>
+        <v>0.1158499809152425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1779035</v>
+        <v>0.396361</v>
       </c>
       <c r="H6">
-        <v>0.355807</v>
+        <v>0.7927219999999999</v>
       </c>
       <c r="I6">
-        <v>0.3203672295442765</v>
+        <v>0.5122474158943284</v>
       </c>
       <c r="J6">
-        <v>0.2391127867045692</v>
+        <v>0.411815402517994</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.4501370000000001</v>
+        <v>0.011782</v>
       </c>
       <c r="N6">
-        <v>1.350411</v>
+        <v>0.035346</v>
       </c>
       <c r="O6">
-        <v>0.612461985056394</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P6">
-        <v>0.678378956759722</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q6">
-        <v>0.08008094777950002</v>
+        <v>0.004669925302</v>
       </c>
       <c r="R6">
-        <v>0.4804856866770001</v>
+        <v>0.028019551812</v>
       </c>
       <c r="S6">
-        <v>0.1962127493537051</v>
+        <v>0.009499790213366591</v>
       </c>
       <c r="T6">
-        <v>0.1622090827925556</v>
+        <v>0.007849974527754492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,55 +838,179 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.396361</v>
+      </c>
+      <c r="H7">
+        <v>0.7927219999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.5122474158943284</v>
+      </c>
+      <c r="J7">
+        <v>0.411815402517994</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.450137</v>
+      </c>
+      <c r="N7">
+        <v>1.350411</v>
+      </c>
+      <c r="O7">
+        <v>0.7085327552066554</v>
+      </c>
+      <c r="P7">
+        <v>0.7282682145116399</v>
+      </c>
+      <c r="Q7">
+        <v>0.178416751457</v>
+      </c>
+      <c r="R7">
+        <v>1.070500508742</v>
+      </c>
+      <c r="S7">
+        <v>0.362944072931098</v>
+      </c>
+      <c r="T7">
+        <v>0.2999120679001718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.396361</v>
+      </c>
+      <c r="H8">
+        <v>0.7927219999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.5122474158943284</v>
+      </c>
+      <c r="J8">
+        <v>0.411815402517994</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.5</v>
       </c>
-      <c r="G7">
-        <v>0.1779035</v>
-      </c>
-      <c r="H7">
-        <v>0.355807</v>
-      </c>
-      <c r="I7">
-        <v>0.3203672295442765</v>
-      </c>
-      <c r="J7">
-        <v>0.2391127867045692</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>0.2142455</v>
-      </c>
-      <c r="N7">
-        <v>0.428491</v>
-      </c>
-      <c r="O7">
-        <v>0.291505084495164</v>
-      </c>
-      <c r="P7">
-        <v>0.2152524509656171</v>
-      </c>
-      <c r="Q7">
-        <v>0.03811502430925</v>
-      </c>
-      <c r="R7">
-        <v>0.152460097237</v>
-      </c>
-      <c r="S7">
-        <v>0.09338867631778595</v>
-      </c>
-      <c r="T7">
-        <v>0.05146961339537735</v>
+      <c r="M8">
+        <v>0.051649</v>
+      </c>
+      <c r="N8">
+        <v>0.103298</v>
+      </c>
+      <c r="O8">
+        <v>0.08129749003896268</v>
+      </c>
+      <c r="P8">
+        <v>0.05570796596193557</v>
+      </c>
+      <c r="Q8">
+        <v>0.020471649289</v>
+      </c>
+      <c r="R8">
+        <v>0.081886597156</v>
+      </c>
+      <c r="S8">
+        <v>0.04164442919115354</v>
+      </c>
+      <c r="T8">
+        <v>0.02294139842607321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.396361</v>
+      </c>
+      <c r="H9">
+        <v>0.7927219999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.5122474158943284</v>
+      </c>
+      <c r="J9">
+        <v>0.411815402517994</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.365222</v>
+      </c>
+      <c r="O9">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P9">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q9">
+        <v>0.04825325238066666</v>
+      </c>
+      <c r="R9">
+        <v>0.289519514284</v>
+      </c>
+      <c r="S9">
+        <v>0.09815912355871025</v>
+      </c>
+      <c r="T9">
+        <v>0.08111196166399454</v>
       </c>
     </row>
   </sheetData>
